--- a/samples/6_sheets/template.xlsx
+++ b/samples/6_sheets/template.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -422,7 +422,7 @@
   <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
